--- a/Income/BSX_inc.xlsx
+++ b/Income/BSX_inc.xlsx
@@ -2108,16 +2108,16 @@
         <v>0.5623</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.5836</v>
+        <v>0.606</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.616</v>
+        <v>0.6383</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.6622</v>
+        <v>0.6833</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.6886</v>
+        <v>0.7097</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.7118</v>
@@ -3634,16 +3634,16 @@
         <v>0.1735</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.1937</v>
+        <v>0.145</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0.177</v>
+        <v>0.1286</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.1825</v>
+        <v>0.1369</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.1871</v>
+        <v>0.1413</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>0.1565</v>
@@ -3761,10 +3761,10 @@
         <v>0.1521</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>0.151</v>
+        <v>0.1511</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>0.1364</v>
+        <v>0.1365</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>0.1306</v>
